--- a/data/trans_dic/P15D$urgencias-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 69,32</t>
+          <t>16,5; 73,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,41; 76,19</t>
+          <t>37,7; 74,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,42; 71,72</t>
+          <t>25,2; 74,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,98; 78,91</t>
+          <t>35,38; 78,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 100,0</t>
+          <t>29,86; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,72; 95,23</t>
+          <t>60,02; 95,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 85,78</t>
+          <t>44,15; 84,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,43; 64,66</t>
+          <t>35,01; 67,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 76,84</t>
+          <t>30,41; 76,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 79,41</t>
+          <t>50,95; 79,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,7; 73,13</t>
+          <t>41,7; 72,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,08; 67,47</t>
+          <t>41,93; 67,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 64,69</t>
+          <t>14,77; 68,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,09; 73,39</t>
+          <t>38,25; 73,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,16; 83,52</t>
+          <t>41,2; 83,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,04; 77,08</t>
+          <t>32,49; 78,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,18</t>
+          <t>0,0; 82,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,52; 74,66</t>
+          <t>34,8; 76,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,09; 94,82</t>
+          <t>55,42; 95,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,85; 62,93</t>
+          <t>29,93; 62,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 65,64</t>
+          <t>16,1; 62,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,24; 67,98</t>
+          <t>42,47; 67,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,27; 86,22</t>
+          <t>55,99; 85,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,33; 65,86</t>
+          <t>37,14; 65,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,03; 66,52</t>
+          <t>27,38; 65,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,9; 74,51</t>
+          <t>48,62; 75,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,0; 69,9</t>
+          <t>33,71; 69,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,0; 71,47</t>
+          <t>37,06; 70,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,41</t>
+          <t>0,0; 78,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 71,9</t>
+          <t>16,34; 72,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 87,87</t>
+          <t>12,74; 87,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 60,23</t>
+          <t>18,93; 60,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,44; 60,86</t>
+          <t>27,06; 61,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,5; 70,16</t>
+          <t>46,95; 69,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,69; 67,25</t>
+          <t>35,61; 67,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,29; 63,4</t>
+          <t>36,72; 62,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 63,36</t>
+          <t>31,77; 63,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,48; 67,83</t>
+          <t>46,79; 67,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,51; 80,8</t>
+          <t>54,98; 80,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,68; 61,44</t>
+          <t>37,27; 63,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,87; 87,16</t>
+          <t>50,93; 86,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,42; 74,05</t>
+          <t>46,06; 74,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,56; 77,22</t>
+          <t>45,15; 77,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,29; 75,1</t>
+          <t>50,56; 75,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,86; 70,27</t>
+          <t>43,87; 69,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,02; 66,91</t>
+          <t>50,89; 66,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56,02; 75,44</t>
+          <t>56,08; 75,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,25; 63,92</t>
+          <t>44,86; 64,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,43; 81,38</t>
+          <t>22,59; 81,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,18; 72,81</t>
+          <t>38,91; 73,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,98; 71,37</t>
+          <t>39,54; 70,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,71; 79,54</t>
+          <t>45,55; 80,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,34; 91,38</t>
+          <t>51,7; 91,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,25; 65,23</t>
+          <t>40,0; 66,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,36; 73,1</t>
+          <t>42,85; 73,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,76; 58,3</t>
+          <t>36,43; 58,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,95; 82,88</t>
+          <t>49,16; 81,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43,57; 63,92</t>
+          <t>43,19; 64,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,76; 67,73</t>
+          <t>46,11; 68,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,15; 64,84</t>
+          <t>44,89; 64,34</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,04; 76,32</t>
+          <t>26,21; 74,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,69; 78,7</t>
+          <t>43,62; 76,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,4; 82,72</t>
+          <t>46,32; 83,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57,29; 100,0</t>
+          <t>43,83; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,33; 78,23</t>
+          <t>41,39; 78,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,83; 60,65</t>
+          <t>39,6; 61,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,0; 78,37</t>
+          <t>52,51; 78,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,09; 61,85</t>
+          <t>35,57; 62,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,61; 71,29</t>
+          <t>41,05; 71,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,95; 61,66</t>
+          <t>43,71; 61,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,4; 76,25</t>
+          <t>55,31; 77,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,84; 71,04</t>
+          <t>43,07; 70,92</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,9; 55,42</t>
+          <t>38,28; 56,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,59; 64,1</t>
+          <t>52,06; 64,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,55; 67,8</t>
+          <t>53,48; 67,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,35; 66,4</t>
+          <t>50,93; 66,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,18; 73,78</t>
+          <t>54,64; 74,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,52; 60,36</t>
+          <t>49,01; 62,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,41; 71,98</t>
+          <t>57,09; 71,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,26; 57,03</t>
+          <t>44,82; 56,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,45; 61,25</t>
+          <t>47,87; 61,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>52,23; 61,31</t>
+          <t>52,43; 61,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>57,67; 67,53</t>
+          <t>57,64; 67,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,62; 59,38</t>
+          <t>49,72; 59,43</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, acudir a urgencias</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19285</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10542</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14220</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5792</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14466</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13610</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11624</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11060</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33751</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24153</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25845</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2078; 9227</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12805; 25198</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5428; 16035</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8432; 18628</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2317; 7761</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10402; 16563</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8861; 16934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8126; 15591</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6190; 15527</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26135; 40558</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17350; 30242</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19726; 31950</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18037</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11018</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14262</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2163</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15034</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17356</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10814</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7020</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33071</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28375</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25076</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1962; 9149</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12412; 23748</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6946; 14116</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7846; 19017</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4624</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9344; 20551</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12239; 20995</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6931; 14425</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3037; 11795</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25188; 40134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21805; 33280</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17571; 31189</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13319</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35484</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16162</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18093</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5985</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14309</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>41469</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20626</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22657</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7744; 18472</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27536; 42773</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10474; 21445</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12357; 23448</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3898</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2287; 10151</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1121; 7735</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2271; 7278</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8996; 20335</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33167; 49374</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14196; 27011</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16650; 28199</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18810</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55154</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40845</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33375</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17746</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29491</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24016</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31281</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>84644</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64861</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64656</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12396; 24807</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44744; 64844</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32433; 47349</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24779; 41976</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12737; 21627</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22423; 36097</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17366; 29803</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25029; 37235</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28093; 44595</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>73430; 96339</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>54650; 74053</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52030; 74288</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6498</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21563</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23149</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24897</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17170</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30663</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23435</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25234</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23669</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>52226</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46585</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>50132</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2855; 10289</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14893; 28028</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16440; 29314</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17450; 30659</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11606; 20577</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23293; 38469</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17315; 29697</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19353; 31175</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17250; 28679</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>41679; 61838</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>37810; 56316</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41046; 58830</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8153</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16507</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19338</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10859</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>17017</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>44911</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>40807</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22282</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>25170</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>61418</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>60145</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>33141</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4244; 12038</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11702; 20562</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13708; 24857</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5141; 11729</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11607; 21973</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35341; 55020</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31734; 47537</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16590; 28960</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18156; 31714</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>50738; 71315</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>49792; 69585</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25138; 41397</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>56905</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>166030</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>121054</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>115708</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>60878</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>123689</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>105799</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>117782</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>306580</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>244744</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>221507</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>46709; 68776</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>147737; 181822</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>106766; 134514</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>100772; 131511</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>51253; 69745</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>124644; 157938</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>108617; 136617</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>93057; 117573</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>103311; 133633</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>282136; 328442</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>224745; 262987</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>201611; 240994</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15D$urgencias-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
